--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>447644.8147288869</v>
+        <v>445757.2332124849</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>580456.4870527277</v>
+        <v>152574.4987607772</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>97.85561937063336</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>57.30159287878474</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>126.4837616268617</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>43.8374309337276</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>347.8423836419744</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>87.20030285819837</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>171.9664138887667</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>85.64047902724785</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>96.40294183403293</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>2.063937515189996</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>22.35002255071629</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>13.72101765531088</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>142.879018522951</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>176.8688121773845</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>70.14968808829656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.4561158141383</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>22.49165304807784</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>114.2292127799775</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>169.7438101404422</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>174.7611531036558</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.73852153117132</v>
+        <v>59.77945773664924</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>88.66218518272606</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>42.20569823125431</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>18.11859556644241</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
         <v>166.3443044298322</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463023</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.106519274536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2598.305031047886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2379.670364019948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2125.90857865804</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1794.845691314469</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.845691314469</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.845691314469</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y2" t="n">
-        <v>1404.706359338657</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.8207968750362</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="C4" t="n">
-        <v>373.0594214943678</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>98.22321508675597</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>98.22321508675597</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>98.22321508675597</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750362</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.8207968750362</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1714.909333753394</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1714.909333753394</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2609.067977020042</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990286</v>
+        <v>2355.306191658134</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990286</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990286</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.048665729206</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1714.909333753394</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>525.0086166875648</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.049931616194</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2544.74369262545</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2326.109025597513</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2072.347240235604</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2072.347240235604</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.189263592006</v>
+        <v>1719.57858496549</v>
       </c>
       <c r="X8" t="n">
-        <v>1969.189263592006</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.049931616194</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,46 +4884,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.4549451025302</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C10" t="n">
-        <v>76.51876217462333</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>67.80259561360776</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>67.80259561360776</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>67.80259561360776</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>245.4549451025302</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.4549451025302</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5124,22 +5124,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>327.180197328635</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M12" t="n">
-        <v>1095.548343721096</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N12" t="n">
-        <v>1899.959921985247</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2072.756377331216</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2593.056999066963</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.0255547109412</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,16 +5200,16 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
         <v>1283.483062980063</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V13" t="n">
-        <v>1154.674019541181</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W13" t="n">
-        <v>1154.674019541181</v>
+        <v>496.6650364395579</v>
       </c>
       <c r="X13" t="n">
-        <v>1154.674019541181</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1154.674019541181</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,67 +5261,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028589</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171748</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.2185435662827</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383758</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383758</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383758</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557903</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229249</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.8670083965225</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171746</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.893885873787</v>
+        <v>1943.479731976179</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>715.2736218676866</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>715.2736218676866</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>565.1569824553509</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>417.2438888729578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>270.3539413750474</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.599783924196</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
@@ -5701,22 +5701,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909234</v>
+        <v>983.3294851211871</v>
       </c>
       <c r="W19" t="n">
-        <v>1164.055751909234</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X19" t="n">
-        <v>936.0662010112168</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y19" t="n">
-        <v>715.2736218676866</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028587</v>
+        <v>424.0331423495621</v>
       </c>
       <c r="M21" t="n">
-        <v>865.5852378527475</v>
+        <v>744.3684618792639</v>
       </c>
       <c r="N21" t="n">
-        <v>1669.996816116898</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O21" t="n">
-        <v>2339.460577419557</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>1387.841167119728</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.314749843308</v>
+        <v>268.6754855415406</v>
       </c>
       <c r="Y22" t="n">
-        <v>1211.314749843308</v>
+        <v>268.6754855415406</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5984,19 +5984,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,16 +6005,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>233.2506118890489</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>463.2137177573981</v>
       </c>
       <c r="M24" t="n">
-        <v>865.5852378527475</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N24" t="n">
-        <v>1669.996816116898</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O24" t="n">
-        <v>2339.460577419557</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W25" t="n">
-        <v>786.0822064765186</v>
+        <v>385.5899330013832</v>
       </c>
       <c r="X25" t="n">
-        <v>558.0926555785013</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,61 +6200,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>618.8589595388347</v>
       </c>
       <c r="M27" t="n">
-        <v>865.5852378527474</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N27" t="n">
-        <v>1669.996816116898</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O27" t="n">
-        <v>2339.460577419557</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1062.583317521776</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>893.6471345938688</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>743.5304951815331</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>595.61740159914</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>448.7274541012296</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>1244.231782352015</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>1244.231782352015</v>
+        <v>499.6581354340556</v>
       </c>
       <c r="Y28" t="n">
-        <v>1244.231782352015</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,7 +6452,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6461,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1760.836254362828</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.3899630740204</v>
+        <v>439.5324299542178</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2146454274844</v>
+        <v>326.3571123076816</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274844</v>
+        <v>232.0013381767166</v>
       </c>
       <c r="E31" t="n">
-        <v>360.062417126462</v>
+        <v>139.8491098756943</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1862.510213215996</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1694.485663286872</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1461.117889781802</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1262.194266857285</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1028.537962101695</v>
+        <v>902.6804289818925</v>
       </c>
       <c r="X31" t="n">
-        <v>856.3092764850488</v>
+        <v>730.451743365246</v>
       </c>
       <c r="Y31" t="n">
-        <v>691.2775626228894</v>
+        <v>565.4200295030867</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,28 +6689,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6725,25 +6725,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>688.9285765597828</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1009.263896089485</v>
       </c>
       <c r="N33" t="n">
-        <v>2612.943493278838</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O33" t="n">
-        <v>2612.943493278838</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.943493278838</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103119</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982962</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823803</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514102</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2148.713336069209</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,7 +7208,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
@@ -7254,25 +7254,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M39" t="n">
-        <v>334.288126757867</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
         <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M42" t="n">
-        <v>334.2881267578673</v>
+        <v>744.368461879264</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,13 +7591,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7789,28 +7789,28 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,13 +7831,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>160.0691419768046</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9264,7 +9264,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>304.803437610204</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417975</v>
+        <v>380.7816112699633</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11385,16 +11385,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>378.6355840713939</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>109.258624800877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>48.8408432116527</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>216.0876643102808</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.12853753795647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>144.0019154152997</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,16 +23941,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>137.9084305438505</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>10.08817004149506</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>50.94850228538133</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>187.8461318209235</v>
+        <v>158.8051956154455</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>77.83138328065152</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>194.5731143188405</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>48.01209316311989</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>124.5989577886038</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26314,16 +26314,16 @@
         <v>328416.7079457132</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901672</v>
       </c>
       <c r="F2" t="n">
-        <v>312823.2477901672</v>
+        <v>312823.2477901671</v>
       </c>
       <c r="G2" t="n">
         <v>312823.2477901672</v>
@@ -26332,28 +26332,28 @@
         <v>312823.2477901672</v>
       </c>
       <c r="I2" t="n">
-        <v>312823.2477901671</v>
+        <v>312823.247790167</v>
       </c>
       <c r="J2" t="n">
-        <v>312823.2477901671</v>
+        <v>312823.2477901669</v>
       </c>
       <c r="K2" t="n">
-        <v>325457.7098762157</v>
+        <v>325457.7098762159</v>
       </c>
       <c r="L2" t="n">
+        <v>328416.7079457136</v>
+      </c>
+      <c r="M2" t="n">
+        <v>328416.7079457133</v>
+      </c>
+      <c r="N2" t="n">
         <v>328416.7079457134</v>
       </c>
-      <c r="M2" t="n">
-        <v>328416.7079457139</v>
-      </c>
-      <c r="N2" t="n">
-        <v>328416.7079457135</v>
-      </c>
       <c r="O2" t="n">
+        <v>328416.7079457136</v>
+      </c>
+      <c r="P2" t="n">
         <v>328416.7079457138</v>
-      </c>
-      <c r="P2" t="n">
-        <v>328416.7079457139</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>3.998865167886834e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
+        <v>44162.60530284564</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10342.90680086688</v>
+      </c>
+      <c r="M3" t="n">
+        <v>134801.0152338371</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>44162.60530284566</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10342.90680086684</v>
-      </c>
-      <c r="M3" t="n">
-        <v>134801.0152338372</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905757961</v>
-      </c>
       <c r="G4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758218</v>
+        <v>787.79369057589</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759314</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477241</v>
+        <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189626</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="N4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="O4" t="n">
-        <v>23206.58093189634</v>
-      </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,19 +26479,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-483469.3885128598</v>
       </c>
       <c r="C6" t="n">
-        <v>106498.4907016846</v>
+        <v>106498.4907016847</v>
       </c>
       <c r="D6" t="n">
-        <v>106498.4907016848</v>
+        <v>106498.4907016847</v>
       </c>
       <c r="E6" t="n">
-        <v>-305111.9083260215</v>
+        <v>-305209.3674519936</v>
       </c>
       <c r="F6" t="n">
-        <v>220048.1281508743</v>
+        <v>219950.6690249025</v>
       </c>
       <c r="G6" t="n">
-        <v>220048.1281508748</v>
+        <v>219950.6690249026</v>
       </c>
       <c r="H6" t="n">
-        <v>220048.1281508747</v>
+        <v>219950.6690249025</v>
       </c>
       <c r="I6" t="n">
-        <v>220048.1281508747</v>
+        <v>219950.6690249023</v>
       </c>
       <c r="J6" t="n">
-        <v>43624.90895828174</v>
+        <v>43527.44983230928</v>
       </c>
       <c r="K6" t="n">
-        <v>165714.4798383749</v>
+        <v>165695.9861004407</v>
       </c>
       <c r="L6" t="n">
-        <v>197152.1143929249</v>
+        <v>197152.114392925</v>
       </c>
       <c r="M6" t="n">
-        <v>72694.00595995506</v>
+        <v>72694.00595995445</v>
       </c>
       <c r="N6" t="n">
-        <v>207495.0211937918</v>
+        <v>207495.0211937916</v>
       </c>
       <c r="O6" t="n">
-        <v>207495.0211937921</v>
+        <v>207495.0211937919</v>
       </c>
       <c r="P6" t="n">
-        <v>163332.4158909465</v>
+        <v>163332.4158909464</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,43 +26735,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26799,7 +26799,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27267,7 +27267,7 @@
         <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>76.56009343833814</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>291.9393758386283</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>40.7630594717661</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>112.3334579080675</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>6.840657978708578</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>129.2480174994594</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>80.17122943506132</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>132.9441743248469</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>78.0127709749386</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>347.177031202223</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>126.2654504674961</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>153.58878460374</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30277,13 +30277,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31142,25 +31142,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578334</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,25 +31616,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578339</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31844,25 +31844,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>225.0728617982309</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>107.9252528799043</v>
       </c>
       <c r="O15" t="n">
-        <v>91.84465193776617</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32315,19 +32315,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>158.2013401486584</v>
       </c>
       <c r="O18" t="n">
-        <v>91.84465193776663</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,22 +32555,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>97.83125759689614</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>91.757008329222</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,34 +32789,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>10.78379835447038</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>102.4943942860908</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,16 +32962,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -33032,28 +33032,28 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>31.2010521344568</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>102.4943942860908</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,16 +33199,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,22 +33260,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>220.7524402282536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,25 +33497,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>365.4024032637857</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>213.8677363986961</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,19 +33734,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33755,16 +33755,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33974,7 +33974,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -33983,10 +33983,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>147.3268674777244</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458549</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34211,7 +34211,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -34223,7 +34223,7 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34232,7 +34232,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34381,7 +34381,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946992</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901185</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901189</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>476.338936630516</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>20.08736789078312</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>455.9259151401246</v>
       </c>
       <c r="O15" t="n">
-        <v>343.1107267700513</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>506.2020024088786</v>
       </c>
       <c r="O18" t="n">
-        <v>343.1107267700517</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>330.1172231204811</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>276.2453695548289</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>10.73738595686865</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.40759639269</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>286.9827555116977</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>354.7720819624384</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>286.9827555116977</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>568.7531024884738</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -36999,16 +36999,16 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>597.6883687873707</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>561.8683986589164</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>170.8290301958737</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>495.3275297379446</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37795,7 +37795,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197792</v>
+        <v>238.6475773479449</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>247.2938719880605</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
